--- a/biology/Zoologie/Afrogarypus_triangularis/Afrogarypus_triangularis.xlsx
+++ b/biology/Zoologie/Afrogarypus_triangularis/Afrogarypus_triangularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Afrogarypus triangularis est une espèce de pseudoscorpions de la famille des Geogarypidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Afrique du Sud[1]. Elle se rencontre au Cap-Oriental et en État-Libre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Afrique du Sud. Elle se rencontre au Cap-Oriental et en État-Libre.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Neethling et Haddad en 2017 mesure 2,08 mm et la femelle 2,10 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Neethling et Haddad en 2017 mesure 2,08 mm et la femelle 2,10 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Garypus minutus triangularis par Ellingsen en 1912. Elle est placée dans le genre Geogarypus par Chamberlin en 1930[3]. Elle est élevée au rang d'espèce par Beier en 1964[4] puis placée dans le genre Afrogarypus par Neethling et Haddad en 2017[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Garypus minutus triangularis par Ellingsen en 1912. Elle est placée dans le genre Geogarypus par Chamberlin en 1930. Elle est élevée au rang d'espèce par Beier en 1964 puis placée dans le genre Afrogarypus par Neethling et Haddad en 2017.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ellingsen, 1912 : The pseudoscorpions of South Africa, based on the collections of the South African Museum, Cape Town. Annals of the South African Museum, vol. 10, p. 75-128 (texte intégral).</t>
         </is>
